--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.138349</v>
+        <v>2.468673666666667</v>
       </c>
       <c r="H2">
-        <v>0.415047</v>
+        <v>7.406021</v>
       </c>
       <c r="I2">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="J2">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>0.4275476161276666</v>
+        <v>4.099037598280333</v>
       </c>
       <c r="R2">
-        <v>3.847928545148999</v>
+        <v>36.891338384523</v>
       </c>
       <c r="S2">
-        <v>0.003083002283287159</v>
+        <v>0.0236017413541709</v>
       </c>
       <c r="T2">
-        <v>0.003083002283287158</v>
+        <v>0.0236017413541709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.138349</v>
+        <v>2.468673666666667</v>
       </c>
       <c r="H3">
-        <v>0.415047</v>
+        <v>7.406021</v>
       </c>
       <c r="I3">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="J3">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
-        <v>3.482377191156333</v>
+        <v>62.13888693961121</v>
       </c>
       <c r="R3">
-        <v>31.341394720407</v>
+        <v>559.2499824565009</v>
       </c>
       <c r="S3">
-        <v>0.02511106699375503</v>
+        <v>0.3577878715238055</v>
       </c>
       <c r="T3">
-        <v>0.02511106699375503</v>
+        <v>0.3577878715238056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.138349</v>
+        <v>2.468673666666667</v>
       </c>
       <c r="H4">
-        <v>0.415047</v>
+        <v>7.406021</v>
       </c>
       <c r="I4">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="J4">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>2.260854440691333</v>
+        <v>44.10580512003167</v>
       </c>
       <c r="R4">
-        <v>20.347689966222</v>
+        <v>396.952246080285</v>
       </c>
       <c r="S4">
-        <v>0.01630279094048315</v>
+        <v>0.2539556614697004</v>
       </c>
       <c r="T4">
-        <v>0.01630279094048315</v>
+        <v>0.2539556614697004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.468673666666667</v>
+        <v>1.416888666666667</v>
       </c>
       <c r="H5">
-        <v>7.406021</v>
+        <v>4.250666</v>
       </c>
       <c r="I5">
-        <v>0.7939936469967431</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="J5">
-        <v>0.793993646996743</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N5">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q5">
-        <v>7.62907965493411</v>
+        <v>2.352631696795333</v>
       </c>
       <c r="R5">
-        <v>68.66171689440699</v>
+        <v>21.173685271158</v>
       </c>
       <c r="S5">
-        <v>0.05501251581886544</v>
+        <v>0.0135461565009022</v>
       </c>
       <c r="T5">
-        <v>0.05501251581886543</v>
+        <v>0.0135461565009022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.468673666666667</v>
+        <v>1.416888666666667</v>
       </c>
       <c r="H6">
-        <v>7.406021</v>
+        <v>4.250666</v>
       </c>
       <c r="I6">
-        <v>0.7939936469967431</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="J6">
-        <v>0.793993646996743</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P6">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q6">
-        <v>62.13888693961121</v>
+        <v>35.66444842541622</v>
       </c>
       <c r="R6">
-        <v>559.2499824565009</v>
+        <v>320.9800358287459</v>
       </c>
       <c r="S6">
-        <v>0.4480771803871769</v>
+        <v>0.2053513945880802</v>
       </c>
       <c r="T6">
-        <v>0.448077180387177</v>
+        <v>0.2053513945880803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.468673666666667</v>
+        <v>1.416888666666667</v>
       </c>
       <c r="H7">
-        <v>7.406021</v>
+        <v>4.250666</v>
       </c>
       <c r="I7">
-        <v>0.7939936469967431</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="J7">
-        <v>0.793993646996743</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N7">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q7">
-        <v>40.34226356461622</v>
+        <v>25.31440921195667</v>
       </c>
       <c r="R7">
-        <v>363.080372081546</v>
+        <v>227.82968290761</v>
       </c>
       <c r="S7">
-        <v>0.2909039507907007</v>
+        <v>0.1457571745633405</v>
       </c>
       <c r="T7">
-        <v>0.2909039507907007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5021629999999999</v>
-      </c>
-      <c r="H8">
-        <v>1.506489</v>
-      </c>
-      <c r="I8">
-        <v>0.1615094927857316</v>
-      </c>
-      <c r="J8">
-        <v>0.1615094927857315</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.090355666666666</v>
-      </c>
-      <c r="N8">
-        <v>9.271066999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.06928583878088775</v>
-      </c>
-      <c r="P8">
-        <v>0.06928583878088775</v>
-      </c>
-      <c r="Q8">
-        <v>1.551862272640333</v>
-      </c>
-      <c r="R8">
-        <v>13.966760453763</v>
-      </c>
-      <c r="S8">
-        <v>0.01119032067873515</v>
-      </c>
-      <c r="T8">
-        <v>0.01119032067873515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5021629999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.506489</v>
-      </c>
-      <c r="I9">
-        <v>0.1615094927857316</v>
-      </c>
-      <c r="J9">
-        <v>0.1615094927857315</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>25.17096033333333</v>
-      </c>
-      <c r="N9">
-        <v>75.51288099999999</v>
-      </c>
-      <c r="O9">
-        <v>0.5643334579338453</v>
-      </c>
-      <c r="P9">
-        <v>0.5643334579338454</v>
-      </c>
-      <c r="Q9">
-        <v>12.63992495386766</v>
-      </c>
-      <c r="R9">
-        <v>113.759324584809</v>
-      </c>
-      <c r="S9">
-        <v>0.09114521055291333</v>
-      </c>
-      <c r="T9">
-        <v>0.09114521055291333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5021629999999999</v>
-      </c>
-      <c r="H10">
-        <v>1.506489</v>
-      </c>
-      <c r="I10">
-        <v>0.1615094927857316</v>
-      </c>
-      <c r="J10">
-        <v>0.1615094927857315</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.34167533333333</v>
-      </c>
-      <c r="N10">
-        <v>49.025026</v>
-      </c>
-      <c r="O10">
-        <v>0.366380703285267</v>
-      </c>
-      <c r="P10">
-        <v>0.366380703285267</v>
-      </c>
-      <c r="Q10">
-        <v>8.206184710412664</v>
-      </c>
-      <c r="R10">
-        <v>73.85566239371398</v>
-      </c>
-      <c r="S10">
-        <v>0.05917396155408308</v>
-      </c>
-      <c r="T10">
-        <v>0.05917396155408308</v>
+        <v>0.1457571745633405</v>
       </c>
     </row>
   </sheetData>
